--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1802698.968252903</v>
+        <v>-1805270.654868522</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1376,7 +1376,7 @@
         <v>316.1696012574541</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>343.4169297090329</v>
       </c>
       <c r="F11" t="n">
         <v>368.3626053784826</v>
@@ -1388,7 +1388,7 @@
         <v>264.6979105187347</v>
       </c>
       <c r="I11" t="n">
-        <v>35.4511147810851</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>89.81790519125275</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.51885590441082</v>
       </c>
       <c r="U11" t="n">
-        <v>147.9768864453438</v>
+        <v>212.5489389111445</v>
       </c>
       <c r="V11" t="n">
-        <v>289.238818106906</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>96.93551735164904</v>
       </c>
       <c r="H12" t="n">
-        <v>55.42454814858051</v>
+        <v>55.4245481485805</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>141.3185398187084</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>128.733380735399</v>
       </c>
       <c r="D13" t="n">
         <v>110.1020326549835</v>
@@ -1546,7 +1546,7 @@
         <v>109.5919900612544</v>
       </c>
       <c r="I13" t="n">
-        <v>69.17146931820169</v>
+        <v>69.17146931820167</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.36263369052351</v>
+        <v>67.3626336905235</v>
       </c>
       <c r="S13" t="n">
         <v>157.8228104620591</v>
       </c>
       <c r="T13" t="n">
-        <v>182.6456267961472</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>213.6242029605991</v>
       </c>
       <c r="W13" t="n">
-        <v>16.37939006608057</v>
+        <v>248.0095579733621</v>
       </c>
       <c r="X13" t="n">
-        <v>187.1962150258083</v>
+        <v>150.7968329979825</v>
       </c>
       <c r="Y13" t="n">
         <v>180.0712129888659</v>
@@ -1616,16 +1616,16 @@
         <v>343.4169297090329</v>
       </c>
       <c r="F14" t="n">
-        <v>198.5483012576521</v>
+        <v>368.3626053784826</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>372.4082852902246</v>
       </c>
       <c r="H14" t="n">
         <v>256.0943240240916</v>
       </c>
       <c r="I14" t="n">
-        <v>3.06348940969707</v>
+        <v>3.063489409697041</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.67432142494695</v>
+        <v>70.6743214249469</v>
       </c>
       <c r="T14" t="n">
         <v>165.4045297763913</v>
       </c>
       <c r="U14" t="n">
-        <v>212.4817315956731</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>289.238818106906</v>
       </c>
       <c r="W14" t="n">
-        <v>310.7275283541841</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>331.2176603152402</v>
       </c>
       <c r="Y14" t="n">
-        <v>347.7244982928247</v>
+        <v>39.47235072472152</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824772</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1749,7 +1749,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034782</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1783,7 +1783,7 @@
         <v>106.2415745510919</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>57.83898004660919</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>50.41871230681845</v>
+        <v>50.41871230681843</v>
       </c>
       <c r="S16" t="n">
         <v>151.255584968213</v>
       </c>
       <c r="T16" t="n">
-        <v>37.14088087467564</v>
+        <v>181.0355089129403</v>
       </c>
       <c r="U16" t="n">
         <v>247.698397842384</v>
       </c>
       <c r="V16" t="n">
-        <v>213.6242029605991</v>
+        <v>11.89059487572564</v>
       </c>
       <c r="W16" t="n">
         <v>248.0095579733621</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T17" t="n">
         <v>106.2332499115152</v>
@@ -1926,7 +1926,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646393</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.08430510333697</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T19" t="n">
         <v>121.8642290480643</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C20" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D20" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E20" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G20" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H20" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T20" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U20" t="n">
         <v>153.3104517307971</v>
@@ -2144,7 +2144,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X20" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y20" t="n">
         <v>288.5532184279487</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383242</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052295</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010748</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846429</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G22" t="n">
-        <v>68.34108803092334</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H22" t="n">
-        <v>47.0702946862159</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333702</v>
+        <v>92.08430510333697</v>
       </c>
       <c r="T22" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U22" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V22" t="n">
         <v>154.4529230957231</v>
@@ -2302,7 +2302,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X22" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y22" t="n">
         <v>120.8999331239899</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D23" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E23" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G23" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H23" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U23" t="n">
         <v>153.3104517307971</v>
@@ -2381,7 +2381,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X23" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y23" t="n">
         <v>288.5532184279487</v>
@@ -2406,7 +2406,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G24" t="n">
         <v>134.9994691657081</v>
@@ -2451,7 +2451,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U24" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092333</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333697</v>
       </c>
       <c r="T25" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U25" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V25" t="n">
         <v>154.4529230957231</v>
@@ -2539,7 +2539,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y25" t="n">
         <v>120.8999331239899</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>323.5625617986046</v>
+        <v>323.5625617986045</v>
       </c>
       <c r="C26" t="n">
-        <v>306.1016119061316</v>
+        <v>306.1016119061315</v>
       </c>
       <c r="D26" t="n">
-        <v>295.511761755807</v>
+        <v>295.5117617558069</v>
       </c>
       <c r="E26" t="n">
-        <v>322.7590902073858</v>
+        <v>322.7590902073857</v>
       </c>
       <c r="F26" t="n">
         <v>347.7047658768354</v>
       </c>
       <c r="G26" t="n">
-        <v>351.7504457885775</v>
+        <v>351.7504457885774</v>
       </c>
       <c r="H26" t="n">
-        <v>235.4364845224445</v>
+        <v>235.4364845224444</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>50.01648192329984</v>
+        <v>50.0164819232998</v>
       </c>
       <c r="T26" t="n">
         <v>144.7466902747441</v>
@@ -2612,7 +2612,7 @@
         <v>191.823892094026</v>
       </c>
       <c r="V26" t="n">
-        <v>268.5809786052589</v>
+        <v>268.5809786052588</v>
       </c>
       <c r="W26" t="n">
         <v>290.069688852537</v>
@@ -2621,7 +2621,7 @@
         <v>310.559820813593</v>
       </c>
       <c r="Y26" t="n">
-        <v>327.0666587911776</v>
+        <v>327.0666587911775</v>
       </c>
     </row>
     <row r="27">
@@ -2716,22 +2716,22 @@
         <v>108.0755412337518</v>
       </c>
       <c r="D28" t="n">
-        <v>89.44419315333636</v>
+        <v>89.44419315333633</v>
       </c>
       <c r="E28" t="n">
-        <v>87.26268278169317</v>
+        <v>87.26268278169314</v>
       </c>
       <c r="F28" t="n">
-        <v>86.24976815805525</v>
+        <v>86.24976815805522</v>
       </c>
       <c r="G28" t="n">
         <v>106.8545283941522</v>
       </c>
       <c r="H28" t="n">
-        <v>85.58373504944478</v>
+        <v>85.58373504944475</v>
       </c>
       <c r="I28" t="n">
-        <v>37.1811405449621</v>
+        <v>37.18114054496207</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>29.76087280517133</v>
+        <v>29.7608728051713</v>
       </c>
       <c r="S28" t="n">
         <v>130.5977454665659</v>
@@ -2767,7 +2767,7 @@
         <v>160.3776694112932</v>
       </c>
       <c r="U28" t="n">
-        <v>227.0405583407369</v>
+        <v>227.0405583407368</v>
       </c>
       <c r="V28" t="n">
         <v>192.966363458952</v>
@@ -2776,7 +2776,7 @@
         <v>227.351718471715</v>
       </c>
       <c r="X28" t="n">
-        <v>166.5383755241612</v>
+        <v>166.5383755241611</v>
       </c>
       <c r="Y28" t="n">
         <v>159.4133734872188</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.01648192329984</v>
+        <v>50.01648192329983</v>
       </c>
       <c r="T29" t="n">
         <v>144.7466902747441</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247744</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>323.5625617986046</v>
+        <v>323.5625617986045</v>
       </c>
       <c r="C32" t="n">
-        <v>306.1016119061316</v>
+        <v>306.1016119061315</v>
       </c>
       <c r="D32" t="n">
-        <v>295.511761755807</v>
+        <v>295.5117617558069</v>
       </c>
       <c r="E32" t="n">
-        <v>322.7590902073858</v>
+        <v>322.7590902073857</v>
       </c>
       <c r="F32" t="n">
         <v>347.7047658768354</v>
       </c>
       <c r="G32" t="n">
-        <v>351.7504457885775</v>
+        <v>351.7504457885774</v>
       </c>
       <c r="H32" t="n">
-        <v>235.4364845224445</v>
+        <v>235.4364845224444</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.01648192329981</v>
+        <v>50.01648192329979</v>
       </c>
       <c r="T32" t="n">
         <v>144.7466902747441</v>
@@ -3086,7 +3086,7 @@
         <v>191.823892094026</v>
       </c>
       <c r="V32" t="n">
-        <v>268.5809786052589</v>
+        <v>268.5809786052588</v>
       </c>
       <c r="W32" t="n">
         <v>290.069688852537</v>
@@ -3095,7 +3095,7 @@
         <v>310.559820813593</v>
       </c>
       <c r="Y32" t="n">
-        <v>327.0666587911776</v>
+        <v>327.0666587911775</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247744</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3190,22 +3190,22 @@
         <v>108.0755412337518</v>
       </c>
       <c r="D34" t="n">
-        <v>89.44419315333634</v>
+        <v>89.44419315333631</v>
       </c>
       <c r="E34" t="n">
-        <v>87.26268278169316</v>
+        <v>87.26268278169313</v>
       </c>
       <c r="F34" t="n">
-        <v>86.24976815805523</v>
+        <v>86.2497681580552</v>
       </c>
       <c r="G34" t="n">
         <v>106.8545283941522</v>
       </c>
       <c r="H34" t="n">
-        <v>85.58373504944477</v>
+        <v>85.58373504944474</v>
       </c>
       <c r="I34" t="n">
-        <v>37.18114054496208</v>
+        <v>37.18114054496206</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>29.76087280517132</v>
+        <v>29.76087280517129</v>
       </c>
       <c r="S34" t="n">
-        <v>130.5977454665659</v>
+        <v>130.5977454665658</v>
       </c>
       <c r="T34" t="n">
-        <v>160.3776694112932</v>
+        <v>160.3776694112931</v>
       </c>
       <c r="U34" t="n">
-        <v>227.0405583407369</v>
+        <v>227.0405583407368</v>
       </c>
       <c r="V34" t="n">
-        <v>192.966363458952</v>
+        <v>192.9663634589519</v>
       </c>
       <c r="W34" t="n">
-        <v>227.351718471715</v>
+        <v>227.3517184717149</v>
       </c>
       <c r="X34" t="n">
-        <v>166.5383755241612</v>
+        <v>166.5383755241611</v>
       </c>
       <c r="Y34" t="n">
-        <v>159.4133734872188</v>
+        <v>159.4133734872187</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007097</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115153</v>
@@ -3354,7 +3354,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G36" t="n">
         <v>134.9994691657081</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383243</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052297</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010749</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846431</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482638</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092336</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621592</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333703</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480643</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007097</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3591,7 +3591,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G39" t="n">
         <v>134.9994691657081</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383243</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052297</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010749</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846431</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482638</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092336</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621592</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333703</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
         <v>154.4529230957231</v>
@@ -3724,10 +3724,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
@@ -3803,7 +3803,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333694</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V43" t="n">
         <v>154.4529230957231</v>
@@ -3961,10 +3961,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383233</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333699</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
   </sheetData>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1417.671377891259</v>
+        <v>1728.74795862656</v>
       </c>
       <c r="C11" t="n">
-        <v>1417.671377891259</v>
+        <v>1728.74795862656</v>
       </c>
       <c r="D11" t="n">
-        <v>1098.308144297871</v>
+        <v>1409.384725033172</v>
       </c>
       <c r="E11" t="n">
-        <v>1098.308144297871</v>
+        <v>1062.49893744829</v>
       </c>
       <c r="F11" t="n">
-        <v>726.2247045216263</v>
+        <v>690.4154976720455</v>
       </c>
       <c r="G11" t="n">
-        <v>349.2061421644376</v>
+        <v>313.3969353148565</v>
       </c>
       <c r="H11" t="n">
-        <v>81.83451537783685</v>
+        <v>46.02530852825605</v>
       </c>
       <c r="I11" t="n">
         <v>46.02530852825605</v>
@@ -5045,7 +5045,7 @@
         <v>392.3409650219241</v>
       </c>
       <c r="L11" t="n">
-        <v>712.1281751217082</v>
+        <v>712.128175121708</v>
       </c>
       <c r="M11" t="n">
         <v>1099.622500200641</v>
@@ -5054,7 +5054,7 @@
         <v>1498.000696951029</v>
       </c>
       <c r="O11" t="n">
-        <v>1860.842670219303</v>
+        <v>1860.842670219302</v>
       </c>
       <c r="P11" t="n">
         <v>2136.018898899081</v>
@@ -5066,25 +5066,25 @@
         <v>2301.265426412802</v>
       </c>
       <c r="S11" t="n">
-        <v>2210.540269653961</v>
+        <v>2301.265426412802</v>
       </c>
       <c r="T11" t="n">
-        <v>2210.540269653961</v>
+        <v>2294.680723479054</v>
       </c>
       <c r="U11" t="n">
-        <v>2061.068667183917</v>
+        <v>2079.984825589009</v>
       </c>
       <c r="V11" t="n">
-        <v>1768.908244853709</v>
+        <v>2079.984825589009</v>
       </c>
       <c r="W11" t="n">
-        <v>1768.908244853709</v>
+        <v>2079.984825589009</v>
       </c>
       <c r="X11" t="n">
-        <v>1768.908244853709</v>
+        <v>2079.984825589009</v>
       </c>
       <c r="Y11" t="n">
-        <v>1417.671377891259</v>
+        <v>1728.74795862656</v>
       </c>
     </row>
     <row r="12">
@@ -5097,10 +5097,10 @@
         <v>673.4739564565928</v>
       </c>
       <c r="C12" t="n">
-        <v>537.9233921888283</v>
+        <v>537.9233921888282</v>
       </c>
       <c r="D12" t="n">
-        <v>427.8914475409396</v>
+        <v>427.8914475409395</v>
       </c>
       <c r="E12" t="n">
         <v>307.5564575488465</v>
@@ -5118,25 +5118,25 @@
         <v>46.02530852825605</v>
       </c>
       <c r="J12" t="n">
-        <v>110.9218844952691</v>
+        <v>135.7887413938604</v>
       </c>
       <c r="K12" t="n">
-        <v>277.3293654245708</v>
+        <v>340.3245282827588</v>
       </c>
       <c r="L12" t="n">
-        <v>547.4073006478209</v>
+        <v>610.4024635060089</v>
       </c>
       <c r="M12" t="n">
-        <v>881.9323804723887</v>
+        <v>983.0558492901732</v>
       </c>
       <c r="N12" t="n">
-        <v>1239.719988665218</v>
+        <v>1340.843457483003</v>
       </c>
       <c r="O12" t="n">
-        <v>1582.934261439587</v>
+        <v>1645.929424297775</v>
       </c>
       <c r="P12" t="n">
-        <v>1846.587886378711</v>
+        <v>1871.454743277302</v>
       </c>
       <c r="Q12" t="n">
         <v>1985.554699161711</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>683.9877590066465</v>
+        <v>814.0214769211908</v>
       </c>
       <c r="C13" t="n">
         <v>683.9877590066465</v>
@@ -5188,7 +5188,7 @@
         <v>355.7754735540948</v>
       </c>
       <c r="G13" t="n">
-        <v>226.5944594165955</v>
+        <v>226.5944594165954</v>
       </c>
       <c r="H13" t="n">
         <v>115.8954795567426</v>
@@ -5224,25 +5224,25 @@
         <v>1773.945332863483</v>
       </c>
       <c r="S13" t="n">
-        <v>1614.528352598777</v>
+        <v>1614.528352598776</v>
       </c>
       <c r="T13" t="n">
-        <v>1430.037820481457</v>
+        <v>1614.528352598776</v>
       </c>
       <c r="U13" t="n">
-        <v>1430.037820481457</v>
+        <v>1614.528352598776</v>
       </c>
       <c r="V13" t="n">
-        <v>1214.255797288933</v>
+        <v>1398.746329406252</v>
       </c>
       <c r="W13" t="n">
-        <v>1197.710958838346</v>
+        <v>1148.231624382654</v>
       </c>
       <c r="X13" t="n">
-        <v>1008.623872953691</v>
+        <v>995.9115910513584</v>
       </c>
       <c r="Y13" t="n">
-        <v>826.7337588235237</v>
+        <v>814.0214769211908</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1525.150598316735</v>
+        <v>2072.850183580427</v>
       </c>
       <c r="C14" t="n">
-        <v>1195.090546389686</v>
+        <v>1742.790131653378</v>
       </c>
       <c r="D14" t="n">
-        <v>875.7273127962981</v>
+        <v>1423.42689805999</v>
       </c>
       <c r="E14" t="n">
-        <v>528.8415252114163</v>
+        <v>1076.541110475108</v>
       </c>
       <c r="F14" t="n">
-        <v>328.2876855572226</v>
+        <v>704.4576706988637</v>
       </c>
       <c r="G14" t="n">
         <v>328.2876855572226</v>
       </c>
       <c r="H14" t="n">
-        <v>69.60655017935235</v>
+        <v>69.60655017935233</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810562</v>
@@ -5291,37 +5291,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3254.217618149629</v>
+        <v>3254.21761814963</v>
       </c>
       <c r="T14" t="n">
         <v>3087.142335547214</v>
       </c>
       <c r="U14" t="n">
-        <v>2872.514323834413</v>
+        <v>3087.142335547214</v>
       </c>
       <c r="V14" t="n">
-        <v>2872.514323834413</v>
+        <v>2794.981913217006</v>
       </c>
       <c r="W14" t="n">
-        <v>2558.648133577661</v>
+        <v>2794.981913217006</v>
       </c>
       <c r="X14" t="n">
-        <v>2224.084840329944</v>
+        <v>2460.418619969289</v>
       </c>
       <c r="Y14" t="n">
-        <v>1872.847973367494</v>
+        <v>2420.547558631186</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>760.8732131799777</v>
+        <v>819.2964253482698</v>
       </c>
       <c r="C16" t="n">
-        <v>630.8394952654332</v>
+        <v>689.2627074337254</v>
       </c>
       <c r="D16" t="n">
-        <v>519.62532086646</v>
+        <v>578.0485330347522</v>
       </c>
       <c r="E16" t="n">
-        <v>410.6146922974294</v>
+        <v>469.0379044657216</v>
       </c>
       <c r="F16" t="n">
-        <v>302.6272098128815</v>
+        <v>361.0504219811737</v>
       </c>
       <c r="G16" t="n">
-        <v>173.8268382009632</v>
+        <v>232.2500503692552</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>124.9353286004755</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
         <v>149.7630548387156</v>
       </c>
       <c r="K16" t="n">
-        <v>391.8785437471886</v>
+        <v>391.8785437471884</v>
       </c>
       <c r="L16" t="n">
-        <v>746.5666481552811</v>
+        <v>746.5666481552814</v>
       </c>
       <c r="M16" t="n">
         <v>1128.851999714427</v>
@@ -5455,7 +5455,7 @@
         <v>2116.582393653154</v>
       </c>
       <c r="Q16" t="n">
-        <v>2232.320995765265</v>
+        <v>2232.320995765266</v>
       </c>
       <c r="R16" t="n">
         <v>2181.393003536156</v>
@@ -5464,22 +5464,22 @@
         <v>2028.609584376345</v>
       </c>
       <c r="T16" t="n">
-        <v>1991.093543088794</v>
+        <v>1845.745433959234</v>
       </c>
       <c r="U16" t="n">
-        <v>1740.8931412278</v>
+        <v>1595.54503209824</v>
       </c>
       <c r="V16" t="n">
-        <v>1525.111118035275</v>
+        <v>1583.534330203568</v>
       </c>
       <c r="W16" t="n">
-        <v>1274.596413011677</v>
+        <v>1333.019625179969</v>
       </c>
       <c r="X16" t="n">
-        <v>1085.509327127023</v>
+        <v>1143.932539295315</v>
       </c>
       <c r="Y16" t="n">
-        <v>903.6192129968549</v>
+        <v>962.0424251651471</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C17" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D17" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E17" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F17" t="n">
-        <v>581.8252978307333</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G17" t="n">
         <v>265.4242822495729</v>
@@ -5513,28 +5513,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5543,22 +5543,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T17" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U17" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V17" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W17" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X17" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y17" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5583,10 +5583,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5595,43 +5595,43 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5668,31 +5668,31 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J19" t="n">
-        <v>175.0427429954468</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K19" t="n">
-        <v>370.061470288941</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L19" t="n">
-        <v>525.7713142112982</v>
+        <v>527.0902910313827</v>
       </c>
       <c r="M19" t="n">
-        <v>789.9116685363199</v>
+        <v>791.2306453564045</v>
       </c>
       <c r="N19" t="n">
-        <v>1057.928378591991</v>
+        <v>1059.247355412076</v>
       </c>
       <c r="O19" t="n">
-        <v>1195.846727810181</v>
+        <v>1197.165704630266</v>
       </c>
       <c r="P19" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q19" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R19" t="n">
         <v>1489.975538818984</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C20" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D20" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E20" t="n">
-        <v>894.1397680464971</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F20" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G20" t="n">
         <v>265.4242822495729</v>
@@ -5750,22 +5750,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5780,7 +5780,7 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T20" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U20" t="n">
         <v>3051.821232515855</v>
@@ -5792,10 +5792,10 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X20" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y20" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="21">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.2593958170929</v>
+        <v>402.2593958170926</v>
       </c>
       <c r="C22" t="n">
-        <v>331.9946474630293</v>
+        <v>331.9946474630291</v>
       </c>
       <c r="D22" t="n">
-        <v>280.5494426245369</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E22" t="n">
-        <v>231.3077836159871</v>
+        <v>231.307783615987</v>
       </c>
       <c r="F22" t="n">
         <v>183.08927069192</v>
@@ -5905,55 +5905,55 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226759</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962289</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>371.3804471090252</v>
       </c>
       <c r="L22" t="n">
-        <v>429.0634411854744</v>
+        <v>623.7981640572063</v>
       </c>
       <c r="M22" t="n">
-        <v>693.2037955104961</v>
+        <v>887.938518382228</v>
       </c>
       <c r="N22" t="n">
-        <v>961.2205055661675</v>
+        <v>1059.247355412076</v>
       </c>
       <c r="O22" t="n">
-        <v>1195.846727810181</v>
+        <v>1293.873577656089</v>
       </c>
       <c r="P22" t="n">
-        <v>1391.505603588764</v>
+        <v>1468.389729577966</v>
       </c>
       <c r="Q22" t="n">
-        <v>1489.975538818985</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S22" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T22" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U22" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V22" t="n">
-        <v>927.4214224304675</v>
+        <v>927.4214224304669</v>
       </c>
       <c r="W22" t="n">
-        <v>736.6756869673502</v>
+        <v>736.6756869673496</v>
       </c>
       <c r="X22" t="n">
-        <v>607.3575706431761</v>
+        <v>607.3575706431757</v>
       </c>
       <c r="Y22" t="n">
-        <v>485.2364260734893</v>
+        <v>485.236426073489</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C23" t="n">
         <v>1440.850850103805</v>
@@ -5972,49 +5972,49 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E23" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G23" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T23" t="n">
         <v>3206.680274668175</v>
@@ -6029,7 +6029,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X23" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y23" t="n">
         <v>1999.070337960652</v>
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6099,7 +6099,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6108,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2593958170928</v>
+        <v>402.2593958170926</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630291</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F25" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G25" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>67.83109325226756</v>
+        <v>67.83109325226758</v>
       </c>
       <c r="J25" t="n">
         <v>176.3617198155309</v>
@@ -6151,46 +6151,46 @@
         <v>371.3804471090251</v>
       </c>
       <c r="L25" t="n">
-        <v>623.7981640572062</v>
+        <v>527.0902910313823</v>
       </c>
       <c r="M25" t="n">
-        <v>887.9385183822278</v>
+        <v>770.087921499699</v>
       </c>
       <c r="N25" t="n">
-        <v>1155.955228437899</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O25" t="n">
-        <v>1293.873577656089</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P25" t="n">
-        <v>1392.824580408847</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q25" t="n">
-        <v>1481.310496936508</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R25" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S25" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T25" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304669</v>
       </c>
       <c r="W25" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673496</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431757</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734892</v>
+        <v>485.236426073489</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1955.671712554366</v>
+        <v>1955.671712554367</v>
       </c>
       <c r="C26" t="n">
         <v>1646.478165174436</v>
@@ -6209,22 +6209,22 @@
         <v>1347.981436128166</v>
       </c>
       <c r="E26" t="n">
-        <v>1021.962153090402</v>
+        <v>1021.962153090403</v>
       </c>
       <c r="F26" t="n">
-        <v>670.7452178612757</v>
+        <v>670.7452178612762</v>
       </c>
       <c r="G26" t="n">
-        <v>315.4417372667533</v>
+        <v>315.4417372667535</v>
       </c>
       <c r="H26" t="n">
         <v>77.6271064360013</v>
       </c>
       <c r="I26" t="n">
-        <v>95.04551302703184</v>
+        <v>95.0455130270318</v>
       </c>
       <c r="J26" t="n">
-        <v>342.5042110522845</v>
+        <v>342.5042110522844</v>
       </c>
       <c r="K26" t="n">
         <v>734.9031518083582</v>
@@ -6236,7 +6236,7 @@
         <v>1836.628403861146</v>
       </c>
       <c r="N26" t="n">
-        <v>2441.986787986155</v>
+        <v>2441.986787986156</v>
       </c>
       <c r="O26" t="n">
         <v>3003.53882593172</v>
@@ -6257,19 +6257,19 @@
         <v>3684.624844832344</v>
       </c>
       <c r="U26" t="n">
-        <v>3490.86333766666</v>
+        <v>3490.863337666661</v>
       </c>
       <c r="V26" t="n">
-        <v>3219.56941988357</v>
+        <v>3219.569419883571</v>
       </c>
       <c r="W26" t="n">
-        <v>2926.569734173937</v>
+        <v>2926.569734173938</v>
       </c>
       <c r="X26" t="n">
         <v>2612.872945473338</v>
       </c>
       <c r="Y26" t="n">
-        <v>2282.502583058007</v>
+        <v>2282.502583058008</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>952.6588444849265</v>
+        <v>952.6588444849266</v>
       </c>
       <c r="C27" t="n">
-        <v>778.2058152037995</v>
+        <v>778.2058152037996</v>
       </c>
       <c r="D27" t="n">
-        <v>629.2714055425482</v>
+        <v>629.2714055425483</v>
       </c>
       <c r="E27" t="n">
-        <v>470.0339505370927</v>
+        <v>470.0339505370928</v>
       </c>
       <c r="F27" t="n">
         <v>323.4993925639777</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>684.3458835222598</v>
+        <v>684.3458835222594</v>
       </c>
       <c r="C28" t="n">
-        <v>575.1786701548336</v>
+        <v>575.1786701548334</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8310003029787</v>
+        <v>484.8310003029785</v>
       </c>
       <c r="E28" t="n">
-        <v>396.6868762810664</v>
+        <v>396.6868762810662</v>
       </c>
       <c r="F28" t="n">
-        <v>309.5658983436368</v>
+        <v>309.5658983436367</v>
       </c>
       <c r="G28" t="n">
-        <v>201.6320312788366</v>
+        <v>201.6320312788365</v>
       </c>
       <c r="H28" t="n">
         <v>115.1838140571751</v>
@@ -6391,13 +6391,13 @@
         <v>713.3590927977851</v>
       </c>
       <c r="M28" t="n">
-        <v>1116.095705463561</v>
+        <v>992.7587226296559</v>
       </c>
       <c r="N28" t="n">
-        <v>1516.083649235653</v>
+        <v>1392.746666401748</v>
       </c>
       <c r="O28" t="n">
-        <v>1873.992815222294</v>
+        <v>1750.655832388388</v>
       </c>
       <c r="P28" t="n">
         <v>2041.842899888275</v>
@@ -6424,10 +6424,10 @@
         <v>1135.469569712604</v>
       </c>
       <c r="X28" t="n">
-        <v>967.2489883750679</v>
+        <v>967.2489883750676</v>
       </c>
       <c r="Y28" t="n">
-        <v>806.2253787920187</v>
+        <v>806.2253787920183</v>
       </c>
     </row>
     <row r="29">
@@ -6497,7 +6497,7 @@
         <v>3490.863337666661</v>
       </c>
       <c r="V29" t="n">
-        <v>3219.569419883571</v>
+        <v>3219.56941988357</v>
       </c>
       <c r="W29" t="n">
         <v>2926.569734173937</v>
@@ -6506,7 +6506,7 @@
         <v>2612.872945473338</v>
       </c>
       <c r="Y29" t="n">
-        <v>2282.502583058008</v>
+        <v>2282.502583058007</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>952.6588444849266</v>
+        <v>952.6588444849265</v>
       </c>
       <c r="C30" t="n">
-        <v>778.2058152037996</v>
+        <v>778.2058152037995</v>
       </c>
       <c r="D30" t="n">
-        <v>629.2714055425483</v>
+        <v>629.2714055425482</v>
       </c>
       <c r="E30" t="n">
-        <v>470.0339505370928</v>
+        <v>470.0339505370927</v>
       </c>
       <c r="F30" t="n">
         <v>323.4993925639777</v>
@@ -6534,7 +6534,7 @@
         <v>187.1362923965958</v>
       </c>
       <c r="H30" t="n">
-        <v>96.63439803446332</v>
+        <v>96.63439803446335</v>
       </c>
       <c r="I30" t="n">
         <v>77.62710643600128</v>
@@ -6619,25 +6619,25 @@
         <v>77.62710643600128</v>
       </c>
       <c r="J31" t="n">
-        <v>181.3293059491641</v>
+        <v>148.029427039668</v>
       </c>
       <c r="K31" t="n">
-        <v>443.8960559642677</v>
+        <v>304.9198483735656</v>
       </c>
       <c r="L31" t="n">
-        <v>819.0354214789911</v>
+        <v>680.059213888289</v>
       </c>
       <c r="M31" t="n">
-        <v>1045.047469844416</v>
+        <v>1082.795826554065</v>
       </c>
       <c r="N31" t="n">
-        <v>1328.057137607774</v>
+        <v>1482.783770326157</v>
       </c>
       <c r="O31" t="n">
-        <v>1685.966303594415</v>
+        <v>1840.692936312798</v>
       </c>
       <c r="P31" t="n">
-        <v>1977.153371094302</v>
+        <v>1998.223506131784</v>
       </c>
       <c r="Q31" t="n">
         <v>2113.343234313043</v>
@@ -6695,13 +6695,13 @@
         <v>77.62710643600128</v>
       </c>
       <c r="I32" t="n">
-        <v>95.04551302703183</v>
+        <v>95.0455130270318</v>
       </c>
       <c r="J32" t="n">
-        <v>342.5042110522845</v>
+        <v>342.5042110522846</v>
       </c>
       <c r="K32" t="n">
-        <v>734.9031518083578</v>
+        <v>734.9031518083583</v>
       </c>
       <c r="L32" t="n">
         <v>1244.516932122994</v>
@@ -6719,7 +6719,7 @@
         <v>3456.892759355125</v>
       </c>
       <c r="Q32" t="n">
-        <v>3763.758688177035</v>
+        <v>3763.758688177034</v>
       </c>
       <c r="R32" t="n">
         <v>3881.355321800064</v>
@@ -6731,10 +6731,10 @@
         <v>3684.624844832343</v>
       </c>
       <c r="U32" t="n">
-        <v>3490.863337666661</v>
+        <v>3490.86333766666</v>
       </c>
       <c r="V32" t="n">
-        <v>3219.569419883571</v>
+        <v>3219.56941988357</v>
       </c>
       <c r="W32" t="n">
         <v>2926.569734173937</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>952.6588444849266</v>
+        <v>952.6588444849265</v>
       </c>
       <c r="C33" t="n">
-        <v>778.2058152037996</v>
+        <v>778.2058152037995</v>
       </c>
       <c r="D33" t="n">
-        <v>629.2714055425483</v>
+        <v>629.2714055425482</v>
       </c>
       <c r="E33" t="n">
-        <v>470.0339505370928</v>
+        <v>470.0339505370927</v>
       </c>
       <c r="F33" t="n">
         <v>323.4993925639777</v>
@@ -6771,7 +6771,7 @@
         <v>187.1362923965958</v>
       </c>
       <c r="H33" t="n">
-        <v>96.63439803446332</v>
+        <v>96.63439803446335</v>
       </c>
       <c r="I33" t="n">
         <v>77.62710643600128</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>684.3458835222596</v>
+        <v>684.3458835222593</v>
       </c>
       <c r="C34" t="n">
-        <v>575.1786701548334</v>
+        <v>575.1786701548333</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8310003029785</v>
+        <v>484.8310003029784</v>
       </c>
       <c r="E34" t="n">
-        <v>396.6868762810662</v>
+        <v>396.6868762810661</v>
       </c>
       <c r="F34" t="n">
         <v>309.5658983436367</v>
@@ -6856,37 +6856,37 @@
         <v>77.62710643600128</v>
       </c>
       <c r="J34" t="n">
-        <v>148.029427039668</v>
+        <v>181.3293059491641</v>
       </c>
       <c r="K34" t="n">
-        <v>410.5961770547716</v>
+        <v>338.2197272830617</v>
       </c>
       <c r="L34" t="n">
-        <v>785.735542569495</v>
+        <v>713.3590927977851</v>
       </c>
       <c r="M34" t="n">
-        <v>1011.74759093492</v>
+        <v>1116.095705463561</v>
       </c>
       <c r="N34" t="n">
-        <v>1411.735534707012</v>
+        <v>1345.984109559636</v>
       </c>
       <c r="O34" t="n">
-        <v>1750.655832388388</v>
+        <v>1703.893275546277</v>
       </c>
       <c r="P34" t="n">
-        <v>2041.842899888275</v>
+        <v>1995.080343046164</v>
       </c>
       <c r="Q34" t="n">
         <v>2113.343234313043</v>
       </c>
       <c r="R34" t="n">
-        <v>2083.281746631052</v>
+        <v>2083.281746631051</v>
       </c>
       <c r="S34" t="n">
-        <v>1951.364832018359</v>
+        <v>1951.364832018358</v>
       </c>
       <c r="T34" t="n">
-        <v>1789.367186148366</v>
+        <v>1789.367186148365</v>
       </c>
       <c r="U34" t="n">
         <v>1560.03328883449</v>
@@ -6898,10 +6898,10 @@
         <v>1135.469569712604</v>
       </c>
       <c r="X34" t="n">
-        <v>967.2489883750677</v>
+        <v>967.2489883750675</v>
       </c>
       <c r="Y34" t="n">
-        <v>806.2253787920184</v>
+        <v>806.2253787920182</v>
       </c>
     </row>
     <row r="35">
@@ -6935,22 +6935,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296687</v>
@@ -6965,22 +6965,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -6990,64 +6990,64 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927788</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170928</v>
+        <v>402.259395817093</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630294</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E37" t="n">
         <v>231.3077836159871</v>
       </c>
       <c r="F37" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404823</v>
@@ -7090,37 +7090,37 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226754</v>
       </c>
       <c r="J37" t="n">
-        <v>175.0427429954467</v>
+        <v>79.65384678970699</v>
       </c>
       <c r="K37" t="n">
-        <v>370.061470288941</v>
+        <v>274.6725740832012</v>
       </c>
       <c r="L37" t="n">
-        <v>622.4791872371221</v>
+        <v>527.0902910313823</v>
       </c>
       <c r="M37" t="n">
-        <v>789.9116685363199</v>
+        <v>791.230645356404</v>
       </c>
       <c r="N37" t="n">
-        <v>1046.769673437848</v>
+        <v>1059.247355412075</v>
       </c>
       <c r="O37" t="n">
-        <v>1184.688022656037</v>
+        <v>1197.165704630265</v>
       </c>
       <c r="P37" t="n">
-        <v>1380.34689843462</v>
+        <v>1392.824580408848</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818985</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R37" t="n">
         <v>1489.975538818985</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219655</v>
       </c>
       <c r="T37" t="n">
         <v>1273.865908363024</v>
@@ -7129,16 +7129,16 @@
         <v>1083.434476062511</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304675</v>
       </c>
       <c r="W37" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673502</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734892</v>
+        <v>485.2364260734894</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464977</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307335</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
@@ -7169,25 +7169,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218377</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296687</v>
@@ -7202,22 +7202,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7239,13 +7239,13 @@
         <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218343</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170925</v>
+        <v>402.259395817093</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630294</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404823</v>
@@ -7327,55 +7327,55 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226762</v>
+        <v>67.83109325226754</v>
       </c>
       <c r="J40" t="n">
-        <v>176.361719815531</v>
+        <v>176.3617198155308</v>
       </c>
       <c r="K40" t="n">
-        <v>371.3804471090253</v>
+        <v>371.380447109025</v>
       </c>
       <c r="L40" t="n">
-        <v>623.7981640572065</v>
+        <v>602.6554402005021</v>
       </c>
       <c r="M40" t="n">
-        <v>887.9385183822282</v>
+        <v>770.0879214996999</v>
       </c>
       <c r="N40" t="n">
-        <v>1134.812504581194</v>
+        <v>1038.104631555371</v>
       </c>
       <c r="O40" t="n">
-        <v>1272.730853799384</v>
+        <v>1272.730853799385</v>
       </c>
       <c r="P40" t="n">
-        <v>1468.389729577966</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219655</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304675</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673502</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734894</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7394,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F41" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
@@ -7409,22 +7409,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296687</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218343</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404823</v>
@@ -7564,55 +7564,55 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226762</v>
+        <v>67.83109325226756</v>
       </c>
       <c r="J43" t="n">
-        <v>176.361719815531</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K43" t="n">
-        <v>274.6725740832014</v>
+        <v>371.3804471090251</v>
       </c>
       <c r="L43" t="n">
-        <v>505.9475671746771</v>
+        <v>527.0902910313823</v>
       </c>
       <c r="M43" t="n">
-        <v>770.0879214996988</v>
+        <v>791.230645356404</v>
       </c>
       <c r="N43" t="n">
-        <v>941.3967585295463</v>
+        <v>1059.247355412075</v>
       </c>
       <c r="O43" t="n">
-        <v>1176.02298077356</v>
+        <v>1293.873577656089</v>
       </c>
       <c r="P43" t="n">
-        <v>1371.681856552143</v>
+        <v>1392.824580408848</v>
       </c>
       <c r="Q43" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S43" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673495</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
         <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495729</v>
@@ -7646,19 +7646,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7673,25 +7673,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064588</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226764</v>
+        <v>67.83109325226758</v>
       </c>
       <c r="J46" t="n">
-        <v>176.361719815531</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K46" t="n">
-        <v>371.3804471090253</v>
+        <v>371.3804471090252</v>
       </c>
       <c r="L46" t="n">
-        <v>623.7981640572065</v>
+        <v>527.0902910313825</v>
       </c>
       <c r="M46" t="n">
-        <v>887.9385183822282</v>
+        <v>791.2306453564042</v>
       </c>
       <c r="N46" t="n">
-        <v>1155.9552284379</v>
+        <v>1059.247355412076</v>
       </c>
       <c r="O46" t="n">
-        <v>1378.103768707684</v>
+        <v>1293.873577656089</v>
       </c>
       <c r="P46" t="n">
-        <v>1477.054771460443</v>
+        <v>1392.824580408848</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S46" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304665</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673493</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431753</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
   </sheetData>
@@ -10039,7 +10039,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>53.9268499661068</v>
       </c>
       <c r="N28" t="n">
         <v>171.8177168444618</v>
@@ -10048,7 +10048,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>10.42375237070266</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10267,28 +10267,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>53.65784208816518</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>44.05999369342594</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10504,28 +10504,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>143.8609913100601</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>47.23490590112219</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.54273168673646</v>
+        <v>14.54273168673647</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>343.4169297090329</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>35.45111478108509</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>89.81790519125298</v>
       </c>
       <c r="T11" t="n">
-        <v>169.0820300698418</v>
+        <v>162.563174165431</v>
       </c>
       <c r="U11" t="n">
-        <v>64.57205246580068</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>289.238818106906</v>
       </c>
       <c r="W11" t="n">
         <v>310.7275283541841</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>141.3185398187084</v>
       </c>
       <c r="C13" t="n">
-        <v>128.733380735399</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>182.6456267961472</v>
       </c>
       <c r="U13" t="n">
         <v>247.7189525387653</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>231.6301679072815</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>36.39938202782576</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>169.8143041208305</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>372.4082852902246</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>212.4817315956731</v>
       </c>
       <c r="V14" t="n">
-        <v>289.238818106906</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>310.7275283541841</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>308.2521475681032</v>
       </c>
     </row>
     <row r="15">
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>57.83898004660922</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>143.8946280382647</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>201.7336080848735</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -26317,7 +26317,7 @@
         <v>163855.2677434077</v>
       </c>
       <c r="D2" t="n">
-        <v>163867.3670361958</v>
+        <v>163867.3670361957</v>
       </c>
       <c r="E2" t="n">
         <v>131200.8207935215</v>
@@ -26326,10 +26326,10 @@
         <v>150003.1670463634</v>
       </c>
       <c r="G2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="H2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="I2" t="n">
         <v>164208.3539728567</v>
@@ -26344,16 +26344,16 @@
         <v>164208.3539728567</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>161906.3083411358</v>
+        <v>161906.3083411326</v>
       </c>
       <c r="E3" t="n">
-        <v>758343.596572584</v>
+        <v>758343.5965725869</v>
       </c>
       <c r="F3" t="n">
-        <v>238556.5016603825</v>
+        <v>238556.5016603828</v>
       </c>
       <c r="G3" t="n">
-        <v>47337.02389190083</v>
+        <v>47337.02389190082</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>36352.13055698652</v>
+        <v>36352.13055698655</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>47337.02389190084</v>
+        <v>47337.02389190085</v>
       </c>
       <c r="M3" t="n">
         <v>139558.1400101343</v>
       </c>
       <c r="N3" t="n">
-        <v>62722.15499356532</v>
+        <v>62722.15499356533</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>401722.4498602138</v>
+        <v>401722.4498602151</v>
       </c>
       <c r="E4" t="n">
-        <v>71940.62760287928</v>
+        <v>71940.62760287931</v>
       </c>
       <c r="F4" t="n">
         <v>54179.49125338267</v>
       </c>
       <c r="G4" t="n">
+        <v>93774.13782657695</v>
+      </c>
+      <c r="H4" t="n">
         <v>93774.13782657697</v>
       </c>
-      <c r="H4" t="n">
-        <v>93774.13782657695</v>
-      </c>
       <c r="I4" t="n">
-        <v>93774.13782657695</v>
+        <v>93774.13782657697</v>
       </c>
       <c r="J4" t="n">
-        <v>95033.13778715176</v>
+        <v>95033.13778715181</v>
       </c>
       <c r="K4" t="n">
         <v>95033.13778715176</v>
       </c>
       <c r="L4" t="n">
-        <v>95033.13778715178</v>
+        <v>95033.13778715179</v>
       </c>
       <c r="M4" t="n">
         <v>93774.13782657695</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657693</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657695</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657695</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26473,16 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>37748.92160594848</v>
+        <v>37748.9216059484</v>
       </c>
       <c r="E5" t="n">
         <v>57418.5470976483</v>
       </c>
       <c r="F5" t="n">
-        <v>77544.12697928959</v>
+        <v>77544.12697928961</v>
       </c>
       <c r="G5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="H5" t="n">
         <v>82518.59730624985</v>
@@ -26503,10 +26503,10 @@
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624987</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-337388.2921883235</v>
+        <v>-337392.7057661917</v>
       </c>
       <c r="C6" t="n">
-        <v>-337388.2921883236</v>
+        <v>-337392.7057661917</v>
       </c>
       <c r="D6" t="n">
-        <v>-437510.3127711023</v>
+        <v>-437514.5751078086</v>
       </c>
       <c r="E6" t="n">
-        <v>-756501.95047959</v>
+        <v>-756914.5446443347</v>
       </c>
       <c r="F6" t="n">
-        <v>-220276.9528466914</v>
+        <v>-220454.5176832729</v>
       </c>
       <c r="G6" t="n">
-        <v>-59421.40505187093</v>
+        <v>-59421.40505187085</v>
       </c>
       <c r="H6" t="n">
-        <v>-12084.38115997003</v>
+        <v>-12084.38115997006</v>
       </c>
       <c r="I6" t="n">
-        <v>-12084.38115997009</v>
+        <v>-12084.38115997011</v>
       </c>
       <c r="J6" t="n">
-        <v>-54905.11766253669</v>
+        <v>-54905.1176625368</v>
       </c>
       <c r="K6" t="n">
         <v>-18552.98710555016</v>
       </c>
       <c r="L6" t="n">
-        <v>-65890.01099745107</v>
+        <v>-65890.01099745106</v>
       </c>
       <c r="M6" t="n">
         <v>-151642.5211701043</v>
       </c>
       <c r="N6" t="n">
-        <v>-74806.53615353548</v>
+        <v>-74806.53615353546</v>
       </c>
       <c r="O6" t="n">
-        <v>-12084.38115997019</v>
+        <v>-12084.38115997</v>
       </c>
       <c r="P6" t="n">
-        <v>-12084.38115997016</v>
+        <v>-12084.38115997004</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="F2" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="G2" t="n">
         <v>97.68472022810492</v>
       </c>
       <c r="H2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="J2" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="K2" t="n">
         <v>59.17127986487601</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="M2" t="n">
+        <v>97.68472022810487</v>
+      </c>
+      <c r="N2" t="n">
+        <v>97.68472022810487</v>
+      </c>
+      <c r="O2" t="n">
         <v>97.68472022810489</v>
       </c>
-      <c r="N2" t="n">
-        <v>97.68472022810495</v>
-      </c>
-      <c r="O2" t="n">
-        <v>97.68472022810495</v>
-      </c>
       <c r="P2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="3">
@@ -26741,16 +26741,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>189.0514498141504</v>
+        <v>189.0514498141467</v>
       </c>
       <c r="E3" t="n">
         <v>880.8039540494226</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26799,7 +26799,7 @@
         <v>575.3163566032006</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
@@ -26808,7 +26808,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
         <v>970.3388304500162</v>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="M2" t="n">
-        <v>38.51344036322884</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>189.0514498141504</v>
+        <v>189.0514498141467</v>
       </c>
       <c r="E3" t="n">
-        <v>691.7525042352722</v>
+        <v>691.7525042352759</v>
       </c>
       <c r="F3" t="n">
-        <v>208.9727465438757</v>
+        <v>208.9727465438759</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>575.3163566032006</v>
       </c>
       <c r="F4" t="n">
-        <v>256.0850987990923</v>
+        <v>256.0850987990925</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9373750477233</v>
+        <v>138.9373750477234</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27045,7 +27045,7 @@
         <v>436.3789815554774</v>
       </c>
       <c r="N4" t="n">
-        <v>256.0850987990923</v>
+        <v>256.0850987990925</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487604</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>575.3163566032006</v>
       </c>
       <c r="N4" t="n">
-        <v>256.0850987990923</v>
+        <v>256.0850987990925</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27868,43 +27868,43 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>331.69139242568</v>
+        <v>331.6913924256802</v>
       </c>
       <c r="I8" t="n">
-        <v>181.1757648710691</v>
+        <v>181.1757648710697</v>
       </c>
       <c r="J8" t="n">
-        <v>116.5413598486411</v>
+        <v>116.5413598486423</v>
       </c>
       <c r="K8" t="n">
-        <v>123.4142596508228</v>
+        <v>123.4142596508247</v>
       </c>
       <c r="L8" t="n">
-        <v>115.831795204976</v>
+        <v>115.8317952049784</v>
       </c>
       <c r="M8" t="n">
-        <v>96.89585981147803</v>
+        <v>96.89585981148065</v>
       </c>
       <c r="N8" t="n">
-        <v>93.80332362085869</v>
+        <v>93.80332362086136</v>
       </c>
       <c r="O8" t="n">
-        <v>102.045779402093</v>
+        <v>102.0457794020955</v>
       </c>
       <c r="P8" t="n">
-        <v>121.9432076242662</v>
+        <v>121.9432076242683</v>
       </c>
       <c r="Q8" t="n">
-        <v>140.2336104729708</v>
+        <v>140.2336104729724</v>
       </c>
       <c r="R8" t="n">
-        <v>167.8448216959889</v>
+        <v>167.8448216959899</v>
       </c>
       <c r="S8" t="n">
-        <v>191.7014367716124</v>
+        <v>191.7014367716127</v>
       </c>
       <c r="T8" t="n">
-        <v>219.7689240503165</v>
+        <v>219.7689240503166</v>
       </c>
       <c r="U8" t="n">
         <v>251.2848524415646</v>
@@ -27947,40 +27947,40 @@
         <v>136.9368781956859</v>
       </c>
       <c r="H9" t="n">
-        <v>108.308167892244</v>
+        <v>108.3081678922441</v>
       </c>
       <c r="I9" t="n">
-        <v>85.5218716882917</v>
+        <v>85.52187168829197</v>
       </c>
       <c r="J9" t="n">
-        <v>88.41916175679297</v>
+        <v>88.41916175679373</v>
       </c>
       <c r="K9" t="n">
-        <v>72.17816324032526</v>
+        <v>72.17816324032655</v>
       </c>
       <c r="L9" t="n">
-        <v>50.26200220393535</v>
+        <v>50.26200220393709</v>
       </c>
       <c r="M9" t="n">
-        <v>39.10099377330639</v>
+        <v>39.10099377330839</v>
       </c>
       <c r="N9" t="n">
-        <v>25.58169394626441</v>
+        <v>25.58169394626647</v>
       </c>
       <c r="O9" t="n">
-        <v>45.84648974568769</v>
+        <v>45.84648974568958</v>
       </c>
       <c r="P9" t="n">
-        <v>56.32419965953326</v>
+        <v>56.32419965953478</v>
       </c>
       <c r="Q9" t="n">
-        <v>88.07466658233253</v>
+        <v>88.07466658233355</v>
       </c>
       <c r="R9" t="n">
-        <v>120.4322178925572</v>
+        <v>120.4322178925577</v>
       </c>
       <c r="S9" t="n">
-        <v>164.1300306324895</v>
+        <v>164.1300306324896</v>
       </c>
       <c r="T9" t="n">
         <v>198.5256882950178</v>
@@ -28026,43 +28026,43 @@
         <v>167.6500669079742</v>
       </c>
       <c r="H10" t="n">
-        <v>159.1961509022225</v>
+        <v>159.1961509022226</v>
       </c>
       <c r="I10" t="n">
-        <v>145.1983077799598</v>
+        <v>145.19830777996</v>
       </c>
       <c r="J10" t="n">
-        <v>102.8929111901396</v>
+        <v>102.8929111901401</v>
       </c>
       <c r="K10" t="n">
-        <v>89.40542983242324</v>
+        <v>89.40542983242401</v>
       </c>
       <c r="L10" t="n">
-        <v>84.2002925064741</v>
+        <v>84.20029250647508</v>
       </c>
       <c r="M10" t="n">
-        <v>85.48620773210679</v>
+        <v>85.48620773210783</v>
       </c>
       <c r="N10" t="n">
-        <v>75.5166419288136</v>
+        <v>75.51664192881462</v>
       </c>
       <c r="O10" t="n">
-        <v>90.27011317790164</v>
+        <v>90.27011317790257</v>
       </c>
       <c r="P10" t="n">
-        <v>96.49619276509097</v>
+        <v>96.49619276509178</v>
       </c>
       <c r="Q10" t="n">
-        <v>122.9582327075091</v>
+        <v>122.9582327075097</v>
       </c>
       <c r="R10" t="n">
-        <v>161.9647279217467</v>
+        <v>161.964727921747</v>
       </c>
       <c r="S10" t="n">
-        <v>218.0754237862554</v>
+        <v>218.0754237862556</v>
       </c>
       <c r="T10" t="n">
-        <v>226.4889635034839</v>
+        <v>226.488963503484</v>
       </c>
       <c r="U10" t="n">
         <v>286.300434131919</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="C11" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="D11" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="E11" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="F11" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="G11" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="H11" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="I11" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="T11" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="U11" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="V11" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="W11" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="X11" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="Y11" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
     </row>
     <row r="12">
@@ -28166,76 +28166,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="C12" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="D12" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="E12" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="F12" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="G12" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="H12" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="I12" t="n">
         <v>34.29303057275501</v>
       </c>
       <c r="J12" t="n">
-        <v>13.39540309192449</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>38.51344036322888</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>38.51344036322888</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>38.51344036322888</v>
+        <v>13.39540309192458</v>
       </c>
       <c r="R12" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="S12" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="T12" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="U12" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="V12" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="W12" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="X12" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="Y12" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="C13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="D13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="E13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="F13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="G13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="H13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="I13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="J13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="K13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="L13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="M13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="N13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="O13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="P13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="R13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="S13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="T13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="U13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="V13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="W13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="X13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.51344036322888</v>
+        <v>38.51344036322889</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="C14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="D14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="E14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="F14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="G14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="H14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="I14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="T14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="U14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="V14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="W14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="X14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="C16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="D16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="E16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="F16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="G16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="H16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="I16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="J16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="K16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="L16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="M16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="N16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="O16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="P16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="R16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="S16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="T16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="U16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="V16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="W16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="X16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.51344036322888</v>
+        <v>38.5134403632289</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>97.68472022810492</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28646,7 +28646,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28740,16 +28740,16 @@
         <v>97.68472022810492</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="J19" t="n">
         <v>97.68472022810492</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>97.68472022810492</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>97.68472022810492</v>
@@ -28761,13 +28761,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>86.4133008804846</v>
+        <v>76.32843350415973</v>
       </c>
       <c r="Q19" t="n">
         <v>97.68472022810492</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="S19" t="n">
         <v>97.68472022810492</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="M22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="N22" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="P22" t="n">
-        <v>97.68472022810488</v>
+        <v>76.32843350416002</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.41330088048547</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="24">
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -29171,7 +29171,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="J25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="K25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="L25" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>97.68472022810489</v>
+        <v>76.32843350416042</v>
       </c>
       <c r="N25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>76.3284335041611</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="R25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="C26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="D26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="E26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="F26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="G26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="H26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="I26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="J26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="K26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="L26" t="n">
-        <v>59.17127986487588</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="M26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="N26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="O26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="P26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="R26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="S26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="T26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="U26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="V26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="W26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="X26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Y26" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="C28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="D28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="E28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="F28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="G28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="H28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="I28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="J28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="K28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="L28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="M28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="N28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="O28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="P28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="R28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="S28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="T28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="U28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="V28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="W28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="X28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Y28" t="n">
-        <v>59.171279864876</v>
+        <v>59.17127986487603</v>
       </c>
     </row>
     <row r="29">
@@ -29542,10 +29542,10 @@
         <v>59.17127986487601</v>
       </c>
       <c r="M29" t="n">
-        <v>59.17127986487583</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="N29" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="O29" t="n">
         <v>59.17127986487601</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="C32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="D32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="E32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="F32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="G32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="H32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="I32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="J32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="K32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="L32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="M32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="N32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="O32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="P32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="Q32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="R32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="S32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="T32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="U32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="V32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="W32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="X32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="Y32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="C34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="D34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="E34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="F34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="G34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="H34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="I34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="J34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="K34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="L34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="M34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="N34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="O34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="P34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="Q34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="R34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="S34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="T34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="U34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="V34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="W34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="X34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="Y34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487604</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30016,7 +30016,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
     </row>
     <row r="36">
@@ -30074,7 +30074,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="N37" t="n">
-        <v>86.41330088048528</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810489</v>
+        <v>76.3284335041611</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
     </row>
     <row r="39">
@@ -30311,7 +30311,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810495</v>
+        <v>76.32843350416144</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>76.32843350415988</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810487</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="L43" t="n">
-        <v>76.32843350416013</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810495</v>
+        <v>85.08100106221845</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810495</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="45">
@@ -30791,7 +30791,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O46" t="n">
-        <v>85.08100106221713</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>85.08100106221796</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7600058283985939</v>
+        <v>0.760005828398579</v>
       </c>
       <c r="H8" t="n">
-        <v>7.783409690087102</v>
+        <v>7.783409690086949</v>
       </c>
       <c r="I8" t="n">
-        <v>29.30012469933682</v>
+        <v>29.30012469933625</v>
       </c>
       <c r="J8" t="n">
-        <v>64.50454467804522</v>
+        <v>64.50454467804396</v>
       </c>
       <c r="K8" t="n">
-        <v>96.67559139415772</v>
+        <v>96.67559139415583</v>
       </c>
       <c r="L8" t="n">
-        <v>119.9346197650112</v>
+        <v>119.9346197650089</v>
       </c>
       <c r="M8" t="n">
-        <v>133.4503734157947</v>
+        <v>133.4503734157921</v>
       </c>
       <c r="N8" t="n">
-        <v>135.6097399757322</v>
+        <v>135.6097399757296</v>
       </c>
       <c r="O8" t="n">
-        <v>128.0524320195937</v>
+        <v>128.0524320195912</v>
       </c>
       <c r="P8" t="n">
-        <v>109.2897881310034</v>
+        <v>109.2897881310012</v>
       </c>
       <c r="Q8" t="n">
-        <v>82.07207940147872</v>
+        <v>82.07207940147711</v>
       </c>
       <c r="R8" t="n">
-        <v>47.74071611814322</v>
+        <v>47.74071611814228</v>
       </c>
       <c r="S8" t="n">
-        <v>17.31863281463298</v>
+        <v>17.31863281463264</v>
       </c>
       <c r="T8" t="n">
-        <v>3.326925513814846</v>
+        <v>3.326925513814782</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0608004662718875</v>
+        <v>0.06080046627188631</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4066389675247763</v>
+        <v>0.4066389675247684</v>
       </c>
       <c r="H9" t="n">
-        <v>3.927276344252445</v>
+        <v>3.927276344252368</v>
       </c>
       <c r="I9" t="n">
-        <v>14.00050831170831</v>
+        <v>14.00050831170804</v>
       </c>
       <c r="J9" t="n">
-        <v>38.41846490987372</v>
+        <v>38.41846490987297</v>
       </c>
       <c r="K9" t="n">
-        <v>65.66327573403373</v>
+        <v>65.66327573403244</v>
       </c>
       <c r="L9" t="n">
-        <v>88.29237757593883</v>
+        <v>88.2923775759371</v>
       </c>
       <c r="M9" t="n">
-        <v>103.0330401487119</v>
+        <v>103.0330401487099</v>
       </c>
       <c r="N9" t="n">
-        <v>105.7600181370689</v>
+        <v>105.7600181370668</v>
       </c>
       <c r="O9" t="n">
-        <v>96.74975469875675</v>
+        <v>96.74975469875486</v>
       </c>
       <c r="P9" t="n">
-        <v>77.65020775479698</v>
+        <v>77.65020775479546</v>
       </c>
       <c r="Q9" t="n">
-        <v>51.90710750368899</v>
+        <v>51.90710750368797</v>
       </c>
       <c r="R9" t="n">
-        <v>25.24728607140673</v>
+        <v>25.24728607140624</v>
       </c>
       <c r="S9" t="n">
-        <v>7.553140471348361</v>
+        <v>7.553140471348214</v>
       </c>
       <c r="T9" t="n">
-        <v>1.639040399803813</v>
+        <v>1.639040399803781</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02675256365294582</v>
+        <v>0.0267525636529453</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3409124504845334</v>
+        <v>0.3409124504845267</v>
       </c>
       <c r="H10" t="n">
-        <v>3.031021605217036</v>
+        <v>3.031021605216976</v>
       </c>
       <c r="I10" t="n">
-        <v>10.25216714729852</v>
+        <v>10.25216714729832</v>
       </c>
       <c r="J10" t="n">
-        <v>24.10251024925651</v>
+        <v>24.10251024925604</v>
       </c>
       <c r="K10" t="n">
-        <v>39.60782833811215</v>
+        <v>39.60782833811137</v>
       </c>
       <c r="L10" t="n">
-        <v>50.68438377476419</v>
+        <v>50.6843837747632</v>
       </c>
       <c r="M10" t="n">
-        <v>53.43957621549826</v>
+        <v>53.43957621549722</v>
       </c>
       <c r="N10" t="n">
-        <v>52.16890253641959</v>
+        <v>52.16890253641857</v>
       </c>
       <c r="O10" t="n">
-        <v>48.18642527394116</v>
+        <v>48.18642527394022</v>
       </c>
       <c r="P10" t="n">
-        <v>41.23181128405665</v>
+        <v>41.23181128405584</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.54676892193671</v>
+        <v>28.54676892193615</v>
       </c>
       <c r="R10" t="n">
-        <v>15.32866345542274</v>
+        <v>15.32866345542245</v>
       </c>
       <c r="S10" t="n">
-        <v>5.941174250716822</v>
+        <v>5.941174250716705</v>
       </c>
       <c r="T10" t="n">
-        <v>1.456625924797551</v>
+        <v>1.456625924797523</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01859522457188366</v>
+        <v>0.0185952245718833</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34366,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>65.55209693637681</v>
+        <v>90.6701342076812</v>
       </c>
       <c r="K12" t="n">
-        <v>168.0883645750523</v>
+        <v>206.6018049382811</v>
       </c>
       <c r="L12" t="n">
         <v>272.8059951750001</v>
       </c>
       <c r="M12" t="n">
-        <v>337.904121034917</v>
+        <v>376.4175613981458</v>
       </c>
       <c r="N12" t="n">
         <v>361.4016244372017</v>
       </c>
       <c r="O12" t="n">
-        <v>346.6810836104734</v>
+        <v>308.1676432472445</v>
       </c>
       <c r="P12" t="n">
-        <v>266.3167928678021</v>
+        <v>227.8033525045732</v>
       </c>
       <c r="Q12" t="n">
-        <v>140.3705179626262</v>
+        <v>115.2524806913219</v>
       </c>
       <c r="R12" t="n">
         <v>10.46281162118598</v>
@@ -35586,7 +35586,7 @@
         <v>227.8938980653931</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.35279417299729</v>
+        <v>85.35279417299731</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>84.09185697629511</v>
+        <v>84.09185697629515</v>
       </c>
       <c r="K16" t="n">
         <v>244.5610999075485</v>
       </c>
       <c r="L16" t="n">
-        <v>358.270812533427</v>
+        <v>358.2708125334271</v>
       </c>
       <c r="M16" t="n">
-        <v>386.1468197567127</v>
+        <v>386.1468197567128</v>
       </c>
       <c r="N16" t="n">
-        <v>383.370386530769</v>
+        <v>383.3703865307691</v>
       </c>
       <c r="O16" t="n">
         <v>340.8665705858687</v>
       </c>
       <c r="P16" t="n">
-        <v>273.4705115083393</v>
+        <v>273.4705115083394</v>
       </c>
       <c r="Q16" t="n">
-        <v>116.9076789011225</v>
+        <v>116.9076789011226</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36036,34 +36036,34 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.33229981826684</v>
       </c>
       <c r="J19" t="n">
         <v>109.6268955184478</v>
       </c>
       <c r="K19" t="n">
-        <v>196.988613427772</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M19" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N19" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P19" t="n">
-        <v>186.3638087115539</v>
+        <v>176.2789413352291</v>
       </c>
       <c r="Q19" t="n">
         <v>110.7360003882471</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36273,13 +36273,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.332299818266826</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L22" t="n">
         <v>254.9673908567486</v>
@@ -36288,19 +36288,19 @@
         <v>266.8084387121431</v>
       </c>
       <c r="N22" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O22" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P22" t="n">
-        <v>197.6352280591742</v>
+        <v>176.2789413352293</v>
       </c>
       <c r="Q22" t="n">
-        <v>99.46458104062766</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>8.752567558057592</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36510,7 +36510,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.332299818266797</v>
+        <v>1.332299818266826</v>
       </c>
       <c r="J25" t="n">
         <v>109.6268955184478</v>
@@ -36519,25 +36519,25 @@
         <v>196.988613427772</v>
       </c>
       <c r="L25" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M25" t="n">
-        <v>266.8084387121431</v>
+        <v>245.4521519881986</v>
       </c>
       <c r="N25" t="n">
         <v>270.7239495511832</v>
       </c>
       <c r="O25" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P25" t="n">
         <v>99.95050783106933</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.3797136643033</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R25" t="n">
-        <v>8.752567558057564</v>
+        <v>8.752567558057592</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,22 +36589,22 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>17.59435009195005</v>
+        <v>17.59435009195008</v>
       </c>
       <c r="J26" t="n">
         <v>249.9582808335886</v>
       </c>
       <c r="K26" t="n">
-        <v>396.3625664202765</v>
+        <v>396.3625664202766</v>
       </c>
       <c r="L26" t="n">
-        <v>514.7613942572081</v>
+        <v>514.7613942572082</v>
       </c>
       <c r="M26" t="n">
-        <v>598.0923956951027</v>
+        <v>598.0923956951028</v>
       </c>
       <c r="N26" t="n">
-        <v>611.4731152777874</v>
+        <v>611.4731152777875</v>
       </c>
       <c r="O26" t="n">
         <v>567.2242807530952</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>104.7496964779422</v>
+        <v>104.7496964779423</v>
       </c>
       <c r="K28" t="n">
-        <v>158.475173064543</v>
+        <v>158.4751730645431</v>
       </c>
       <c r="L28" t="n">
         <v>378.9286520350742</v>
       </c>
       <c r="M28" t="n">
-        <v>406.8046592583598</v>
+        <v>282.221848315021</v>
       </c>
       <c r="N28" t="n">
         <v>404.0282260324161</v>
@@ -36768,10 +36768,10 @@
         <v>361.5244100875158</v>
       </c>
       <c r="P28" t="n">
-        <v>169.545540066648</v>
+        <v>294.1283510099865</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.2225600250182</v>
+        <v>72.22256002501823</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>514.7613942572082</v>
       </c>
       <c r="M29" t="n">
-        <v>598.0923956951026</v>
+        <v>598.0923956951027</v>
       </c>
       <c r="N29" t="n">
-        <v>611.4731152777874</v>
+        <v>611.4731152777875</v>
       </c>
       <c r="O29" t="n">
         <v>567.2242807530952</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>104.7496964779422</v>
+        <v>71.1134551552189</v>
       </c>
       <c r="K31" t="n">
-        <v>265.2189394091956</v>
+        <v>158.475173064543</v>
       </c>
       <c r="L31" t="n">
         <v>378.9286520350742</v>
       </c>
       <c r="M31" t="n">
-        <v>228.2949983489142</v>
+        <v>406.8046592583598</v>
       </c>
       <c r="N31" t="n">
-        <v>285.8683512761195</v>
+        <v>404.0282260324161</v>
       </c>
       <c r="O31" t="n">
         <v>361.5244100875158</v>
       </c>
       <c r="P31" t="n">
-        <v>294.1283510099864</v>
+        <v>159.1217876959453</v>
       </c>
       <c r="Q31" t="n">
-        <v>137.5655184027697</v>
+        <v>116.2825537184441</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,13 +37063,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>17.59435009195005</v>
+        <v>17.59435009195009</v>
       </c>
       <c r="J32" t="n">
         <v>249.9582808335886</v>
       </c>
       <c r="K32" t="n">
-        <v>396.3625664202765</v>
+        <v>396.3625664202766</v>
       </c>
       <c r="L32" t="n">
         <v>514.7613942572082</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>71.1134551552189</v>
+        <v>104.7496964779423</v>
       </c>
       <c r="K34" t="n">
-        <v>265.2189394091956</v>
+        <v>158.4751730645431</v>
       </c>
       <c r="L34" t="n">
         <v>378.9286520350742</v>
       </c>
       <c r="M34" t="n">
-        <v>228.2949983489142</v>
+        <v>406.8046592583599</v>
       </c>
       <c r="N34" t="n">
-        <v>404.0282260324161</v>
+        <v>232.2105091879544</v>
       </c>
       <c r="O34" t="n">
-        <v>342.3437350316934</v>
+        <v>361.5244100875158</v>
       </c>
       <c r="P34" t="n">
-        <v>294.1283510099864</v>
+        <v>294.1283510099865</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.22256002501821</v>
+        <v>119.4574659261404</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37458,22 +37458,22 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.332299818266769</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K37" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277719</v>
       </c>
       <c r="L37" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M37" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
-        <v>259.4525302035636</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O37" t="n">
         <v>139.3114638567573</v>
@@ -37482,10 +37482,10 @@
         <v>197.6352280591742</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.7360003882471</v>
+        <v>89.3797136643033</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.752567558057535</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37695,34 +37695,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266854</v>
+        <v>1.332299818266769</v>
       </c>
       <c r="J40" t="n">
         <v>109.6268955184478</v>
       </c>
       <c r="K40" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277719</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567486</v>
+        <v>233.6111041328051</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N40" t="n">
-        <v>249.3676628272382</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O40" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591743</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057621</v>
+        <v>8.752567558057535</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266854</v>
+        <v>1.332299818266797</v>
       </c>
       <c r="J43" t="n">
         <v>109.6268955184478</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
-        <v>233.6111041328038</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M43" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591743</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882471</v>
+        <v>98.13228122236065</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057621</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38169,31 +38169,31 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.332299818266868</v>
+        <v>1.332299818266812</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6268955184479</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K46" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567487</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M46" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511833</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O46" t="n">
-        <v>224.3924649189744</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>98.13228122236019</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
